--- a/data/georgia_census/racha/oni/education_graduates.xlsx
+++ b/data/georgia_census/racha/oni/education_graduates.xlsx
@@ -1857,13 +1857,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{079BF1BA-52CF-415B-9B98-01667F64BCE6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E5078DA-7168-4F15-92FA-A6281FFF700A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7E2D364-FF9A-4AD2-B02A-D1EC48519353}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4156FE1-7C4C-4FB5-8425-AAE2101B3CD3}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A40B5367-04F3-42F0-9E46-AF9A11E08DC4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8C4C6AA-3E36-42F6-87EE-F3E8CF1E0525}"/>
 </file>